--- a/办公经费批量导入模板.xlsx
+++ b/办公经费批量导入模板.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\陶祎祎\IdeaProjects\oa-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E14DFE71-B5C3-41EC-ACCC-49BD46E847F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F12AE8-6564-46F4-9C40-1E9373164B53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="15034" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,33 +27,35 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
+    <t>笔墨纸砚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅兰竹菊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>办公桌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打印机墨水、打印机纸张</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗手液</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期（格式为xxxx-xx-xx）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支出金额总计（只可保留2位小数）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>支出项目清单</t>
-  </si>
-  <si>
-    <t>支出金额总计</t>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>笔墨纸砚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>梅兰竹菊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>办公桌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打印机墨水、打印机纸张</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>洗手液</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -62,9 +64,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,6 +76,30 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -100,9 +126,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -386,79 +421,79 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.0703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="58.5" customWidth="1"/>
+    <col min="2" max="2" width="29.5703125" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
+      <c r="A1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3">
         <v>50</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="4">
         <v>44932</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
         <v>100</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="4">
         <v>44932</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
         <v>50</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="4">
         <v>44932</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
         <v>100</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="4">
         <v>44932</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3">
         <v>100</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="4">
         <v>44932</v>
       </c>
     </row>

--- a/办公经费批量导入模板.xlsx
+++ b/办公经费批量导入模板.xlsx
@@ -1,77 +1,100 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\陶祎祎\IdeaProjects\oa-project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\陶祎祎\Documents\WeChat Files\wxid_guhg739bsw8421\FileStorage\File\2023-02\导入模版\导入模版\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F12AE8-6564-46F4-9C40-1E9373164B53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5328E9ED-979C-45B6-9B9F-1F58E07FCA9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="15034" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>笔墨纸砚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>梅兰竹菊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>办公桌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打印机墨水、打印机纸张</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>洗手液</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>支出项目清单</t>
+  </si>
+  <si>
+    <t>笔墨纸砚/样例，导入前删除本行</t>
+  </si>
+  <si>
+    <t>2022-12-25</t>
+  </si>
+  <si>
+    <t>办公桌/样例，导入前删除本行</t>
   </si>
   <si>
     <t>日期（格式为xxxx-xx-xx）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>支出金额总计（只可保留2位小数）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>支出项目清单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>支出金额总计</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-01-01</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>模版填写说明：
+1.本列不能删除，且不用填写任何信息；
+2.第一行表头信息不得修改、调整、删除等；
+3.不能随意更改单元格格式，否则会导致导入失败。
+4.金额最多保留两位小数，单位“元”，同时不能出现中文，如不能填“2万”
+5.日期格式必须用“-”分割，如2023-01-01；</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-10-09</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅兰竹菊/样例，导入前删除本行</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-  </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -82,39 +105,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -122,21 +152,58 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -198,7 +265,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -233,7 +300,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -408,97 +475,76 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.149999999999999" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="58.5" customWidth="1"/>
-    <col min="2" max="2" width="29.5703125" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="31.35546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="46.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="23.2109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" style="5" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:4" ht="216" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <v>50</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3">
-        <v>50</v>
-      </c>
-      <c r="C2" s="4">
-        <v>44932</v>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="6">
+        <v>80</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3">
-        <v>100</v>
-      </c>
-      <c r="C3" s="4">
-        <v>44932</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3">
-        <v>50</v>
-      </c>
-      <c r="C4" s="4">
-        <v>44932</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3">
-        <v>100</v>
-      </c>
-      <c r="C5" s="4">
-        <v>44932</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3">
-        <v>100</v>
-      </c>
-      <c r="C6" s="4">
-        <v>44932</v>
+      <c r="C4" s="6">
+        <v>50.01</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="qY2nEZkAmuqsZsUC1qxSmpRKLCbq4Uc9W8hrQPm6vgN3+2LmQnDy3Af5UPPN5wnlF8KOgAs3Ove9DqESmU3HyA==" saltValue="86mtcgOsbuN+2z6XZuFCUQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/办公经费批量导入模板.xlsx
+++ b/办公经费批量导入模板.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\陶祎祎\Documents\WeChat Files\wxid_guhg739bsw8421\FileStorage\File\2023-02\导入模版\导入模版\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\陶祎祎\IdeaProjects\oa-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5328E9ED-979C-45B6-9B9F-1F58E07FCA9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F235F0C5-7EA9-4F69-98F3-861CB9863EFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="15034" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -483,7 +483,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.149999999999999" x14ac:dyDescent="0.35"/>
@@ -546,5 +546,6 @@
   <sheetProtection algorithmName="SHA-512" hashValue="qY2nEZkAmuqsZsUC1qxSmpRKLCbq4Uc9W8hrQPm6vgN3+2LmQnDy3Af5UPPN5wnlF8KOgAs3Ove9DqESmU3HyA==" saltValue="86mtcgOsbuN+2z6XZuFCUQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>